--- a/tableau2.xlsx
+++ b/tableau2.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1352,6 +1352,348 @@
         </is>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0,0001</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>(0, 0,1)</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2,2077215917241975</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>2,1794148056623137</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>23,685714285714287</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0,0001</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>(0, 0,1)</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2,223611367075916</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>2,2048816641098052</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>23,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0,0001</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>(0, 0,1)</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2,2146582486515953</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>2,1954575391601954</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>23,714285714285715</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0,0001</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>(0, 0,1)</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2,235946882498052</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>2,223201451371017</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>17,685714285714287</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0,0001</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>(0, 0,1)</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>2,2511713964947746</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>2,2385759327792862</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>17,214285714285715</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0,0001</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>(0, 0,1)</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>0,40360077396405736</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>0,37413761358399433</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>89,62857142857143</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/tableau2.xlsx
+++ b/tableau2.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -540,17 +540,17 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1,8087251977619552</t>
+          <t>1,8213432218271588</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1,0819729082073484</t>
+          <t>1,1049285614389395</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>75,4</t>
+          <t>71,92857142857143</t>
         </is>
       </c>
     </row>
@@ -597,17 +597,17 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2,2184994301398597</t>
+          <t>2,234561588065965</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2,104869503288465</t>
+          <t>2,149596328804814</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>33,94285714285714</t>
+          <t>39,857142857142854</t>
         </is>
       </c>
     </row>
@@ -654,17 +654,17 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2,26945033214395</t>
+          <t>2,2436957919029963</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2,2252736161436353</t>
+          <t>2,1962712218080247</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>12,471428571428572</t>
+          <t>32,08571428571429</t>
         </is>
       </c>
     </row>
@@ -711,17 +711,17 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2,282125050849385</t>
+          <t>2,2614043839507634</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2,2544326021671295</t>
+          <t>2,225668681383133</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>11,042857142857143</t>
+          <t>17,885714285714286</t>
         </is>
       </c>
     </row>
@@ -768,17 +768,17 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2,2720762263025556</t>
+          <t>2,2877986508437567</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2,243869497107969</t>
+          <t>2,2615236252316473</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>15,442857142857143</t>
+          <t>11,67142857142857</t>
         </is>
       </c>
     </row>
@@ -825,17 +825,17 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2,274920034217102</t>
+          <t>2,2886432111055157</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2,251601188111717</t>
+          <t>2,2679555206508426</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>10,071428571428571</t>
+          <t>13,9</t>
         </is>
       </c>
     </row>
@@ -882,17 +882,17 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2,282706882527176</t>
+          <t>2,2689862552317783</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2,265649412470094</t>
+          <t>2,2491198652086983</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>10,642857142857142</t>
+          <t>11,942857142857143</t>
         </is>
       </c>
     </row>
@@ -939,17 +939,17 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2,279566477480389</t>
+          <t>2,2909906953857058</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2,2599883590061096</t>
+          <t>2,276043513602312</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>10,528571428571428</t>
+          <t>11,514285714285714</t>
         </is>
       </c>
     </row>
@@ -996,17 +996,17 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2,277999325565435</t>
+          <t>2,2874270382277464</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2,2649952618821154</t>
+          <t>2,274110657497517</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>10,414285714285715</t>
+          <t>10,042857142857143</t>
         </is>
       </c>
     </row>
@@ -1053,17 +1053,17 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2,297643326375683</t>
+          <t>2,294296268387209</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2,2725644208551423</t>
+          <t>2,2732172684294745</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>12,657142857142857</t>
+          <t>12,057142857142857</t>
         </is>
       </c>
     </row>
@@ -1110,17 +1110,17 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0,5379902806462238</t>
+          <t>0,5463139872521379</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>0,4611620892929745</t>
+          <t>0,47212590605564975</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>87,8</t>
+          <t>87,21428571428571</t>
         </is>
       </c>
     </row>
@@ -1167,17 +1167,17 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1,3351094341881218</t>
+          <t>1,3333929505837816</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>1,0937412133457933</t>
+          <t>1,0945878827811921</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>77,04285714285714</t>
+          <t>77,02857142857142</t>
         </is>
       </c>
     </row>
@@ -1224,17 +1224,17 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1,8226059319954069</t>
+          <t>1,8506402219855596</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>1,6398210166181837</t>
+          <t>1,6719858280250004</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>66,7</t>
+          <t>65,5</t>
         </is>
       </c>
     </row>
@@ -1281,17 +1281,17 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2,123931243737539</t>
+          <t>2,0970637778043746</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>2,0556055337190626</t>
+          <t>2,0187877749204635</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>48,84285714285714</t>
+          <t>49,714285714285715</t>
         </is>
       </c>
     </row>
@@ -1338,17 +1338,17 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2,1561740161010197</t>
+          <t>2,159807944570269</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2,110504736630653</t>
+          <t>2,1142279740164396</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>39,17142857142857</t>
+          <t>44,7</t>
         </is>
       </c>
     </row>
@@ -1395,17 +1395,17 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2,2077215917241975</t>
+          <t>2,205111088553787</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2,1794148056623137</t>
+          <t>2,176537495205878</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>23,685714285714287</t>
+          <t>14,957142857142857</t>
         </is>
       </c>
     </row>
@@ -1452,17 +1452,17 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2,223611367075916</t>
+          <t>2,2159115039665283</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2,2048816641098052</t>
+          <t>2,1912339689116753</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>23,5</t>
+          <t>17,957142857142856</t>
         </is>
       </c>
     </row>
@@ -1509,17 +1509,17 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2,2146582486515953</t>
+          <t>2,216386071273259</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>2,1954575391601954</t>
+          <t>2,2007133460402235</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>23,714285714285715</t>
+          <t>28,4</t>
         </is>
       </c>
     </row>
@@ -1566,17 +1566,17 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2,235946882498052</t>
+          <t>2,2234383058496507</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2,223201451371017</t>
+          <t>2,2074484379546155</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>17,685714285714287</t>
+          <t>23,37142857142857</t>
         </is>
       </c>
     </row>
@@ -1623,17 +1623,17 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2,2511713964947746</t>
+          <t>2,246855172446611</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2,2385759327792862</t>
+          <t>2,2348381775181467</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>17,214285714285715</t>
+          <t>14,657142857142857</t>
         </is>
       </c>
     </row>
@@ -1680,17 +1680,1784 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>0,40360077396405736</t>
+          <t>0,40668223235125456</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>0,37413761358399433</t>
+          <t>0,3744903821925114</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>89,62857142857143</t>
+          <t>89,47142857142858</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0,0001</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>(0, 0,1)</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>0,7753462751692249</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>0,6927055651409793</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>83,37142857142857</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0,0001</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>(0, 0,1)</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>1,235820197914801</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>1,0944743466803006</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>76,14285714285714</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0,0001</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>(0, 0,1)</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>1,6780123718182245</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>1,539891454577446</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>67,6</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0,0001</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>(0, 0,1)</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>1,9516468968561718</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>1,867693732514173</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>62,34285714285714</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0,0001</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>(0, 0,1)</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>2,0495987997166605</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>1,9899087828032824</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>57,94285714285714</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0,0001</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>(0, 0,1)</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>2,0998164754516937</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>2,059020598213394</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>54,97142857142857</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0,0001</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>(0, 0,1)</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>2,1374298792509805</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>2,10520577634938</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>39,214285714285715</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0,0001</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>(0, 0,1)</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>2,1663967639256088</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>2,1432086524454137</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>34,05714285714286</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0,0001</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>(0, 0,1)</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>2,1677000056345586</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>2,149055327180278</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>43,68571428571428</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0,0001</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>(0, 0,1)</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>0,36448101385038134</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>0,3431505737589123</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>90,25714285714285</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0,0001</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>(0, 0,1)</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>0,5793111573352612</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>0,5325981744456535</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>86,41428571428571</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0,0001</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>(0, 0,1)</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>0,8471308948809192</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>0,7771703743934631</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>82,02857142857142</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0,0001</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>(0, 0,1)</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>1,1597889422509404</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>1,0672906471192838</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>76,02857142857142</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0,0001</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>(0, 0,1)</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>1,4801534204483031</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>1,3792352919253714</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>69,17142857142858</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0,0001</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>(0, 0,1)</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>1,7032287271703754</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>1,6137534729914165</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>70,97142857142858</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0,0001</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>(0, 0,1)</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>1,9165694168579561</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>1,854182723944174</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>64,64285714285714</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0,0001</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>(0, 0,1)</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>2,0178494761671337</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>1,9725617175439185</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>57,57142857142857</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0,0001</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>(0, 0,1)</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>2,053737776316763</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>2,0174813004373346</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>60,614285714285714</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0,0001</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>(0, 0,1)</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>2,119813548066216</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>2,0965914025216246</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>49,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0,0001</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>(0, 0,1)</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>0,34049525167778993</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>0,31919888303699917</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>91,04285714285714</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0,0001</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>(0, 0,1)</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>0,4957857971174997</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>0,46309886881546936</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>88,14285714285714</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0,0001</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>(0, 0,1)</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>0,7072771002902162</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>0,659432543622596</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>83,25714285714285</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0,0001</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>(0, 0,1)</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>0,9016090149829785</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>0,8422012479156256</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>79,94285714285714</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0,0001</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>(0, 0,1)</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>1,1907686071651322</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>1,1240654327262642</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>75,07142857142857</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0,0001</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>(0, 0,1)</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>1,4287580963349042</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>1,3476918656934562</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>72,82857142857142</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0,0001</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>(0, 0,1)</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>1,5827395042390313</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>1,508450884544783</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>69,77142857142857</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0,0001</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>(0, 0,1)</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>1,8091715913443338</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>1,7492306204373116</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>67,64285714285714</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0,0001</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>(0, 0,1)</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>1,8885257416201229</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>1,8365477416121845</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>66,85714285714286</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0,0001</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>(0, 0,1)</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>1,9706669801394527</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>1,9262358182814063</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>61,47142857142857</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0,0001</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>(0, 0,1)</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>0,32621260962293647</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>0,30852311417283534</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>91,14285714285714</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0,0001</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>(0, 0,1)</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>0,4485634767419348</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>0,4226988489544474</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>88,55714285714286</t>
         </is>
       </c>
     </row>

--- a/tableau2.xlsx
+++ b/tableau2.xlsx
@@ -2,16 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="EVERYTHING" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -51,7 +50,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -420,7 +419,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -432,13 +431,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="K61" sqref="A51:K61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -3333,131 +3332,17 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>1,9706669801394527</t>
+          <t>1,9619184700801375</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>1,9262358182814063</t>
+          <t>1,9183140188697878</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>61,47142857142857</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>0,0001</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>784</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>(0, 0,1)</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>0,32621260962293647</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>0,30852311417283534</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>91,14285714285714</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>0,0001</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>784</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>(0, 0,1)</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>0,4485634767419348</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>0,4226988489544474</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>88,55714285714286</t>
+          <t>64,12857142857143</t>
         </is>
       </c>
     </row>
